--- a/report/Web进程链及SSH操作序列异常检测西电合作项目跟踪表_0710更新.xlsx
+++ b/report/Web进程链及SSH操作序列异常检测西电合作项目跟踪表_0710更新.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2BB322-45F3-4719-ACF5-888B1B4B01BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CA12F-FFDD-4C06-80A6-D3713C4C5313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7410" yWindow="2235" windowWidth="25725" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="2474" windowWidth="23079" windowHeight="12803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目跟踪表" sheetId="3" r:id="rId1"/>
@@ -333,12 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.对数据清洗，将正常指令与恶意指令分割开并重新尝试已测试的算法；
-2.在网上搜索公开恶意命令数据集，与原数据集一起训练，测试算法结果；
-3.根据反馈意见调整文档格式，填充Survey内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ongoing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,21 +394,6 @@
   </si>
   <si>
     <t>变更说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 根据新数据集测试结果，决定是否使用新的算法模型（n-gram based knn）
-2. 实现基于g-gram距离的knn算法，应用于命令分类
-3. 衡量算法性能指标，优化准确率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 测量算法运行物理负载
-2. 为算法在命令检测系统的集成提供参考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 初步完成算法预测demo，根据指令得出命令是否恶意的结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,6 +403,34 @@
   <si>
     <t>1.  进行运行调试
 2. 完善设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.清洗原数据集，将恶意数据与正常数据分割开
+2. 去除数据集中模式重复指令
+2.在网上搜索公开恶意命令数据集，与原数据集一起参与训练
+3.根据结果调整文档格式，填充Survey内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用常见有监督学习算法测试准确率
+2. 使用sklearn中的决策树、SVM、knn、Byes算法进行准确率测试
+3. 实现基于g-gram距离的knn算法，应用于命令分类
+4. 衡量算法性能指标，优化准确率
+5. 调整文档格式，丰富文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用常见的无监督学习算法进行测试
+2. 测试iForest算法性能
+3. 测试基于聚类（Kmeans）的异常检测算法性能
+4. 调整文档格式，丰富文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 初步完成算法预测demo，根据指令得出命令是否恶意的结果
+2. 测试模型性能
+3. 调整文档格式，丰富文档内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,19 +1067,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="40.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="96.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="96.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1086,7 +1093,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:7" ht="17.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1106,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.55" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
+    <row r="6" spans="1:7" ht="16.55" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="13" t="s">
         <v>30</v>
@@ -1183,7 +1190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="49.5">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="65.45">
       <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
@@ -1197,13 +1204,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="49.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="81.849999999999994">
       <c r="A8" s="27"/>
       <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
@@ -1214,10 +1221,10 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="65.45">
       <c r="A9" s="27"/>
       <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
@@ -1228,10 +1235,10 @@
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="49.1">
       <c r="A10" s="27"/>
       <c r="B10" s="31"/>
       <c r="C10" s="7" t="s">
@@ -1242,7 +1249,7 @@
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1">
@@ -1256,10 +1263,10 @@
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="32.75">
       <c r="A12" s="27"/>
       <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
@@ -1270,7 +1277,7 @@
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1">
@@ -1282,7 +1289,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="7"/>
@@ -1296,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="7"/>
@@ -1308,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="7"/>
@@ -1320,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="7"/>
@@ -1344,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="7"/>
@@ -1356,12 +1363,12 @@
         <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+    <row r="20" spans="1:6" ht="16.55" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="18" t="s">
         <v>73</v>
@@ -1374,7 +1381,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="22.5" customHeight="1">
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="22.6" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="8" t="s">
         <v>29</v>
@@ -1383,12 +1390,12 @@
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="16.55" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1411,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1425,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1437,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1451,7 +1458,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1463,7 +1470,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1476,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="7"/>
     </row>
@@ -1506,15 +1513,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="17.05">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5">
+    <row r="2" spans="1:4" ht="16.399999999999999">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.399999999999999">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1561,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="16.399999999999999">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1566,7 +1573,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="16.399999999999999">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1585,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="16.399999999999999">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1590,7 +1597,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="16.399999999999999">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
+    <row r="8" spans="1:4" ht="16.399999999999999">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1618,7 +1625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5">
+    <row r="9" spans="1:4" ht="16.399999999999999">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
